--- a/data/trans_orig/P6701-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>23331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14796</v>
+        <v>14555</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35377</v>
+        <v>35614</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08675177024899144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0550154581621542</v>
+        <v>0.05412008449389566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1315448075590454</v>
+        <v>0.1324249041422322</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>17310</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9929</v>
+        <v>10520</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27350</v>
+        <v>28137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1073348416437361</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06156821237215516</v>
+        <v>0.0652288286928745</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1695861484825195</v>
+        <v>0.1744659644267771</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -785,19 +785,19 @@
         <v>40641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28477</v>
+        <v>28923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54411</v>
+        <v>55304</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09446781979204723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06619327894525963</v>
+        <v>0.06723053293731167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1264742792624129</v>
+        <v>0.1285500113880654</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>33863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23882</v>
+        <v>24100</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47596</v>
+        <v>46172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1259153474798927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0887999946457473</v>
+        <v>0.08961177836150508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1769774633554806</v>
+        <v>0.1716847707188295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -835,19 +835,19 @@
         <v>24229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16393</v>
+        <v>16067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34317</v>
+        <v>34114</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.150234573082686</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1016440422726222</v>
+        <v>0.09962364107811396</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.212783699765577</v>
+        <v>0.2115292137331755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -856,19 +856,19 @@
         <v>58092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44030</v>
+        <v>44780</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73952</v>
+        <v>74421</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1350319825049169</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1023438468131839</v>
+        <v>0.1040882910843567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1718974107303654</v>
+        <v>0.1729859923611973</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>101078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>85403</v>
+        <v>84023</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118695</v>
+        <v>117314</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3758438076505031</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.317556146297132</v>
+        <v>0.3124253597217376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4413477869531259</v>
+        <v>0.4362139661011036</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -906,19 +906,19 @@
         <v>60242</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48446</v>
+        <v>48405</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72755</v>
+        <v>73043</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3735386546004368</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3003947419809335</v>
+        <v>0.3001420504900135</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4511265670910002</v>
+        <v>0.4529086986996614</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>154</v>
@@ -927,19 +927,19 @@
         <v>161321</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142482</v>
+        <v>140908</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>184059</v>
+        <v>182890</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3749796666874018</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3311904415753186</v>
+        <v>0.3275322979968869</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4278336358124143</v>
+        <v>0.4251165305161442</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>73153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59772</v>
+        <v>57758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89773</v>
+        <v>85895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2720074044558025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2222537179528603</v>
+        <v>0.2147628362173432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3338054723609784</v>
+        <v>0.319386695403867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -977,19 +977,19 @@
         <v>37440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27232</v>
+        <v>27225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48471</v>
+        <v>50517</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2321531441602187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1688536840117316</v>
+        <v>0.1688086056599822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3005485484741769</v>
+        <v>0.3132362063815157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -998,19 +998,19 @@
         <v>110593</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92943</v>
+        <v>90370</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129010</v>
+        <v>128524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2570670954491942</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2160406610186613</v>
+        <v>0.2100601423080166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2998765397542976</v>
+        <v>0.2987458884455035</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>37512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27139</v>
+        <v>26932</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50282</v>
+        <v>50731</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1394816701648102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1009119462441741</v>
+        <v>0.1001427491945551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1869656482299372</v>
+        <v>0.1886369932418085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -1048,19 +1048,19 @@
         <v>22053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15017</v>
+        <v>14242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31522</v>
+        <v>32797</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1367387865129225</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0931140358164196</v>
+        <v>0.08831169449344756</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.195454555776552</v>
+        <v>0.2033630600932671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -1069,19 +1069,19 @@
         <v>59564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46814</v>
+        <v>46688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74522</v>
+        <v>76168</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1384534355664399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1088154682414572</v>
+        <v>0.1085243869742151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1732209996442944</v>
+        <v>0.1770467113637463</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>39999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29363</v>
+        <v>28608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56114</v>
+        <v>54300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09739357848835636</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07149704643205547</v>
+        <v>0.06965736011946046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1366329477174706</v>
+        <v>0.132216744716043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1194,19 +1194,19 @@
         <v>35434</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24820</v>
+        <v>24086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48811</v>
+        <v>47502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1304815695917394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09139707344841878</v>
+        <v>0.08869477102331721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1797423817601372</v>
+        <v>0.174923042265209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1215,19 +1215,19 @@
         <v>75432</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59823</v>
+        <v>59652</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92732</v>
+        <v>96106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1105637811531642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08768433975403243</v>
+        <v>0.08743354711196689</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1359203659827388</v>
+        <v>0.1408659660017563</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>39274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28559</v>
+        <v>29142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52785</v>
+        <v>55644</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09562884341025663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0695388095111311</v>
+        <v>0.07095876418677992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1285280790581241</v>
+        <v>0.1354880933476323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1265,19 +1265,19 @@
         <v>29381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19284</v>
+        <v>19581</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41088</v>
+        <v>40820</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1081935751918869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07101179842058987</v>
+        <v>0.07210638385374726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1513050471724922</v>
+        <v>0.1503171442745398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -1286,19 +1286,19 @@
         <v>68655</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54456</v>
+        <v>54035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87830</v>
+        <v>87844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1006300555864804</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07981800975135357</v>
+        <v>0.07920162973005238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1287359420007264</v>
+        <v>0.128756374599874</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>151977</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>132211</v>
+        <v>132515</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>171294</v>
+        <v>171637</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.370051498630399</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3219227516692965</v>
+        <v>0.3226643003743369</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4170866964869407</v>
+        <v>0.417922673281238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -1336,19 +1336,19 @@
         <v>91284</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75647</v>
+        <v>75263</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>107618</v>
+        <v>108583</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3361456609819508</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2785659640422542</v>
+        <v>0.2771488077301421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.396296633822684</v>
+        <v>0.3998486470618391</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>226</v>
@@ -1357,19 +1357,19 @@
         <v>243261</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>219021</v>
+        <v>217806</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>270595</v>
+        <v>269537</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3565557638196967</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3210271148693493</v>
+        <v>0.3192466982446804</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3966214444897257</v>
+        <v>0.3950703013045519</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>106014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87965</v>
+        <v>88767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126216</v>
+        <v>126168</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2581349803451182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2141885230578869</v>
+        <v>0.2161407038144041</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3073269862796367</v>
+        <v>0.3072094094391857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1407,19 +1407,19 @@
         <v>63190</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47220</v>
+        <v>50042</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77665</v>
+        <v>77389</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2326917269503927</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1738844499534847</v>
+        <v>0.1842761388250289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2859974092095717</v>
+        <v>0.2849780890691085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>150</v>
@@ -1428,19 +1428,19 @@
         <v>169203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147699</v>
+        <v>147342</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194911</v>
+        <v>193867</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2480076564283049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2164873196328049</v>
+        <v>0.2159648539002559</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2856884463692065</v>
+        <v>0.2841585124118456</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>73428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58657</v>
+        <v>58667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90832</v>
+        <v>89606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1787910991258699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1428244566636658</v>
+        <v>0.1428495758069206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2211685541699573</v>
+        <v>0.2181836304251493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -1478,19 +1478,19 @@
         <v>52272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39959</v>
+        <v>39652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67531</v>
+        <v>66664</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1924874672840302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1471477712128744</v>
+        <v>0.1460138616279553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2486795171055129</v>
+        <v>0.2454835827957389</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -1499,19 +1499,19 @@
         <v>125700</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105443</v>
+        <v>106595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>147672</v>
+        <v>148475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1842427430123538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1545523332251295</v>
+        <v>0.1562394355049217</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2164486204433244</v>
+        <v>0.2176246052389992</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>15826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9655</v>
+        <v>8995</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25298</v>
+        <v>25909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04924576692098058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03004223681476119</v>
+        <v>0.02798799382526426</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07871942286816033</v>
+        <v>0.08061913593447155</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1624,19 +1624,19 @@
         <v>22775</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14546</v>
+        <v>13965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35719</v>
+        <v>33172</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1062574686594383</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06786136438341608</v>
+        <v>0.0651543558048739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1666461410470695</v>
+        <v>0.1547610526500056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1645,19 +1645,19 @@
         <v>38602</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27454</v>
+        <v>26679</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52659</v>
+        <v>52520</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07205640780636473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0512473357544972</v>
+        <v>0.049800496543965</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09829617603838652</v>
+        <v>0.09803733231042915</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>32939</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22542</v>
+        <v>21859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46227</v>
+        <v>46248</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1024945270242727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07014303958699973</v>
+        <v>0.06801749759265459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1438435469031546</v>
+        <v>0.1439085974851441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1695,19 +1695,19 @@
         <v>20729</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12922</v>
+        <v>12839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30560</v>
+        <v>31154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09670965113819713</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06028577677671299</v>
+        <v>0.05989769805487112</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1425781202597275</v>
+        <v>0.1453483773418249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -1716,19 +1716,19 @@
         <v>53668</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40439</v>
+        <v>40748</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69531</v>
+        <v>72252</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1001799718999731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07548539883557402</v>
+        <v>0.07606215080095406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.129790911643206</v>
+        <v>0.134870338121418</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>107432</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>89020</v>
+        <v>89942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>125828</v>
+        <v>126592</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3342913938646088</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2769993329728745</v>
+        <v>0.2798690083537841</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3915338280954427</v>
+        <v>0.3939123960981023</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -1766,19 +1766,19 @@
         <v>62646</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48461</v>
+        <v>48521</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77153</v>
+        <v>77123</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2922690300405119</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2260919099040983</v>
+        <v>0.2263722932704266</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3599507015167969</v>
+        <v>0.3598113108507834</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>152</v>
@@ -1787,19 +1787,19 @@
         <v>170077</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>146491</v>
+        <v>148427</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192486</v>
+        <v>194256</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3174780551794415</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2734498658842328</v>
+        <v>0.277064310276489</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.359306866046643</v>
+        <v>0.3626116601640456</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>78777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62672</v>
+        <v>63425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96054</v>
+        <v>96393</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2451266215614047</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1950150527488194</v>
+        <v>0.1973554764984742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2988871639210003</v>
+        <v>0.2999421803533039</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1837,19 +1837,19 @@
         <v>44957</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33064</v>
+        <v>32926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58611</v>
+        <v>57979</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2097459638441186</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1542577841456959</v>
+        <v>0.1536127913173394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2734453434788597</v>
+        <v>0.2704996832425311</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -1858,19 +1858,19 @@
         <v>123734</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103812</v>
+        <v>103392</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146275</v>
+        <v>144703</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2309706596646683</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1937819912522288</v>
+        <v>0.1929986962068855</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2730460252185861</v>
+        <v>0.2701129356066486</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>86398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69636</v>
+        <v>71382</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100814</v>
+        <v>104823</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2688416906287332</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2166844715041498</v>
+        <v>0.2221177081733945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3136976419830979</v>
+        <v>0.3261724624926322</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -1908,19 +1908,19 @@
         <v>63235</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50909</v>
+        <v>51224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78128</v>
+        <v>78403</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2950178863177341</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.237515269544116</v>
+        <v>0.2389848907967872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3645014750322345</v>
+        <v>0.3657856732606561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -1929,19 +1929,19 @@
         <v>149633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127967</v>
+        <v>126470</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>172891</v>
+        <v>171504</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2793149054495524</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2388723278965714</v>
+        <v>0.236077246625505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3227292261476785</v>
+        <v>0.320141502758838</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>47224</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34668</v>
+        <v>35404</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61533</v>
+        <v>61834</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1133308873762321</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08319986010415734</v>
+        <v>0.08496629683783076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1476719211941019</v>
+        <v>0.1483946884515781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2054,19 +2054,19 @@
         <v>39076</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28131</v>
+        <v>28325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51404</v>
+        <v>52408</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1308342043278528</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09418906004901931</v>
+        <v>0.09483702656162737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1721117490983374</v>
+        <v>0.1754735270276718</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>82</v>
@@ -2075,19 +2075,19 @@
         <v>86299</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70089</v>
+        <v>69275</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106347</v>
+        <v>108029</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1206386391627729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09797796168052457</v>
+        <v>0.0968401429457131</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1486641457693473</v>
+        <v>0.1510151140471807</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>46090</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32758</v>
+        <v>34040</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60932</v>
+        <v>62870</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1106104218706674</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07861438669269045</v>
+        <v>0.08169100724971441</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1462300365395607</v>
+        <v>0.1508797751864915</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -2125,19 +2125,19 @@
         <v>32228</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22033</v>
+        <v>22424</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43896</v>
+        <v>44276</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1079071307645993</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07377165662355419</v>
+        <v>0.07508214093718046</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1469747803914377</v>
+        <v>0.1482479939181401</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>72</v>
@@ -2146,19 +2146,19 @@
         <v>78318</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>62169</v>
+        <v>62942</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>98394</v>
+        <v>97388</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1094817797701723</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08690685440062638</v>
+        <v>0.08798790837077541</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1375466518892245</v>
+        <v>0.1361399657772329</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>173510</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>154415</v>
+        <v>153891</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>196202</v>
+        <v>193289</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.416402599379179</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3705766071540398</v>
+        <v>0.3693184768350458</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4708607682581253</v>
+        <v>0.4638694497512713</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>103</v>
@@ -2196,19 +2196,19 @@
         <v>109464</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93036</v>
+        <v>92931</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>126472</v>
+        <v>127695</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3665109912488276</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3115075760562189</v>
+        <v>0.3111553224458303</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4234579817614236</v>
+        <v>0.4275509954905988</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>271</v>
@@ -2217,19 +2217,19 @@
         <v>282974</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>257880</v>
+        <v>257134</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>308545</v>
+        <v>309082</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3955725196031162</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3604927563275904</v>
+        <v>0.3594506033001137</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4313183106524303</v>
+        <v>0.4320693636419144</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>81418</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66544</v>
+        <v>66377</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98981</v>
+        <v>98586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.19539287311754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1596965951487175</v>
+        <v>0.1592968101820367</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2375411537263949</v>
+        <v>0.2365936984755468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -2267,19 +2267,19 @@
         <v>61759</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47095</v>
+        <v>48126</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77493</v>
+        <v>76779</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2067849971308546</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.15768558928042</v>
+        <v>0.1611379343587093</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2594656694937654</v>
+        <v>0.2570737107761303</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>140</v>
@@ -2288,19 +2288,19 @@
         <v>143177</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>121033</v>
+        <v>123895</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>164768</v>
+        <v>165949</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2001491610166223</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1691932883580779</v>
+        <v>0.1731942288053021</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2303313438298087</v>
+        <v>0.2319821587588236</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>68447</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54401</v>
+        <v>54895</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>83761</v>
+        <v>83322</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1642632182563816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1305555825077279</v>
+        <v>0.1317401743424507</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2010150570871389</v>
+        <v>0.1999620282334999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -2338,19 +2338,19 @@
         <v>56138</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44518</v>
+        <v>42838</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71725</v>
+        <v>71077</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1879626765278657</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.149056175215476</v>
+        <v>0.1434329378246653</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2401525182878692</v>
+        <v>0.2379831496487027</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>122</v>
@@ -2359,19 +2359,19 @@
         <v>124584</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104279</v>
+        <v>105420</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>145892</v>
+        <v>146744</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1741579004473164</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1457733480362522</v>
+        <v>0.1473673878830885</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2039438789371986</v>
+        <v>0.2051344128828474</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>126379</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>104635</v>
+        <v>104339</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>151602</v>
+        <v>150835</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08914461976053349</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07380663958639287</v>
+        <v>0.07359817387306686</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.106935726475292</v>
+        <v>0.1063950837273277</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>103</v>
@@ -2484,19 +2484,19 @@
         <v>114595</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>95523</v>
+        <v>94554</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>138962</v>
+        <v>136065</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1211566440811909</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1009921957701824</v>
+        <v>0.09996846663420686</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1469184294965911</v>
+        <v>0.1438564390710333</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>219</v>
@@ -2505,19 +2505,19 @@
         <v>240974</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>209303</v>
+        <v>212420</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>272736</v>
+        <v>273750</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1019552486066206</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.088555296406451</v>
+        <v>0.08987392918043913</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1153935679962253</v>
+        <v>0.1158224403319651</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>152166</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>129158</v>
+        <v>129897</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>178638</v>
+        <v>178300</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1073339909802384</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09110431081753406</v>
+        <v>0.0916261085433005</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1260062230495727</v>
+        <v>0.1257679505460884</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>100</v>
@@ -2555,19 +2555,19 @@
         <v>106567</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88636</v>
+        <v>88542</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>128301</v>
+        <v>128661</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.112669100889039</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09371114145454947</v>
+        <v>0.0936115221311194</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1356477908830846</v>
+        <v>0.136027721085946</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>239</v>
@@ -2576,19 +2576,19 @@
         <v>258733</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>226990</v>
+        <v>230422</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>292712</v>
+        <v>291228</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1094690047553786</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09603870702525789</v>
+        <v>0.09749057347464515</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1238454244646218</v>
+        <v>0.1232173388709469</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>533997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>496649</v>
+        <v>493185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>570211</v>
+        <v>570795</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3766674989134754</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3503227817606219</v>
+        <v>0.3478796327113017</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4022116471485773</v>
+        <v>0.4026232288240893</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>299</v>
@@ -2626,19 +2626,19 @@
         <v>323636</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>293552</v>
+        <v>294254</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>354836</v>
+        <v>353271</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3421667875305067</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.31036094818494</v>
+        <v>0.311102948350389</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3751538430376291</v>
+        <v>0.373498824219297</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>803</v>
@@ -2647,19 +2647,19 @@
         <v>857633</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>809434</v>
+        <v>809880</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>910399</v>
+        <v>903961</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.362860942851103</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3424682398486252</v>
+        <v>0.3426569348880494</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3851858173789039</v>
+        <v>0.3824619248231702</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>339361</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>307305</v>
+        <v>307517</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>372408</v>
+        <v>371500</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2393765419378339</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2167650824445299</v>
+        <v>0.2169142507855775</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2626866648643879</v>
+        <v>0.2620461850434894</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>190</v>
@@ -2697,19 +2697,19 @@
         <v>207347</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>183386</v>
+        <v>182913</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>233730</v>
+        <v>237211</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2192195850751204</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1938861528472726</v>
+        <v>0.1933866580639739</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2471135367402901</v>
+        <v>0.2507932575447877</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>509</v>
@@ -2718,19 +2718,19 @@
         <v>546709</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>509106</v>
+        <v>504034</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>592141</v>
+        <v>590425</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2313100950787336</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2154006762952727</v>
+        <v>0.2132547823698439</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2505325650429532</v>
+        <v>0.2498065012032147</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>265785</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>236520</v>
+        <v>238958</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>298728</v>
+        <v>296542</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1874773484079188</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1668346630364192</v>
+        <v>0.1685543882621761</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2107148524904444</v>
+        <v>0.2091730007490554</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>181</v>
@@ -2768,19 +2768,19 @@
         <v>193697</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>168967</v>
+        <v>170208</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>221466</v>
+        <v>218807</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.204787882424143</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1786421911085249</v>
+        <v>0.1799536661466389</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2341466500202482</v>
+        <v>0.2313353639212265</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>434</v>
@@ -2789,19 +2789,19 @@
         <v>459482</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>420205</v>
+        <v>419821</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>500710</v>
+        <v>497415</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1944047087081642</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1777870129115074</v>
+        <v>0.1776245907710009</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2118481542528244</v>
+        <v>0.2104541324243535</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>21963</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14013</v>
+        <v>14122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33335</v>
+        <v>33993</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09101175316505045</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05806871540951653</v>
+        <v>0.05852023645958138</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1381347828758722</v>
+        <v>0.140861116146379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -3154,19 +3154,19 @@
         <v>21119</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13828</v>
+        <v>14405</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32186</v>
+        <v>30916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1285925681216702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08419789834735485</v>
+        <v>0.08771010006052872</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1959780797312101</v>
+        <v>0.1882446973450503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -3175,19 +3175,19 @@
         <v>43082</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31323</v>
+        <v>31766</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57884</v>
+        <v>56231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1062304409909604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07723519317755086</v>
+        <v>0.07832765798364859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1427295723564396</v>
+        <v>0.1386514439993786</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>31344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22320</v>
+        <v>21364</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43777</v>
+        <v>43237</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1298842169466849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0924918038250041</v>
+        <v>0.08853020112850464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.181405626504728</v>
+        <v>0.1791699444089577</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -3225,19 +3225,19 @@
         <v>25266</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17044</v>
+        <v>16963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35083</v>
+        <v>34264</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1538431968565633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1037786557674918</v>
+        <v>0.1032880913301916</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2136196504737367</v>
+        <v>0.2086340787469066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -3246,19 +3246,19 @@
         <v>56610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43304</v>
+        <v>44213</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71451</v>
+        <v>71118</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1395866205879199</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1067777708299685</v>
+        <v>0.1090194591730431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1761828455036101</v>
+        <v>0.1753616968035343</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>97708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83129</v>
+        <v>82458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113492</v>
+        <v>113460</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4048860875531435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3444766922028669</v>
+        <v>0.3416941577225265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4702946111280263</v>
+        <v>0.4701607705869729</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -3296,19 +3296,19 @@
         <v>58610</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47113</v>
+        <v>47264</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70504</v>
+        <v>69764</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3568724173415074</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2868700388519581</v>
+        <v>0.2877855107550816</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4292956943677824</v>
+        <v>0.4247909828618602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -3317,19 +3317,19 @@
         <v>156317</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>138510</v>
+        <v>137331</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176531</v>
+        <v>177537</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3854425214897</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.341534560429469</v>
+        <v>0.3386266795153491</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4352840719380944</v>
+        <v>0.437765503519322</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>65354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52067</v>
+        <v>51987</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80206</v>
+        <v>80393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2708196713217991</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2157595088452565</v>
+        <v>0.2154257978961179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3323616172187551</v>
+        <v>0.33313867108108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -3367,19 +3367,19 @@
         <v>45145</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34877</v>
+        <v>34850</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56910</v>
+        <v>56798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.274884497207447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2123629093110663</v>
+        <v>0.2122016259044484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3465196216444397</v>
+        <v>0.3458385462252277</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -3388,19 +3388,19 @@
         <v>110499</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93493</v>
+        <v>93018</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129684</v>
+        <v>127963</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2724657589942394</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2305311847790087</v>
+        <v>0.2293613918929774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3197711072642006</v>
+        <v>0.3155261476942665</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>24952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16827</v>
+        <v>16584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35452</v>
+        <v>36965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1033982710133221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06972988533153236</v>
+        <v>0.06872256025014606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1469065389994438</v>
+        <v>0.1531767825814804</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3438,19 +3438,19 @@
         <v>14092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8446</v>
+        <v>8344</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23232</v>
+        <v>22815</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08580732047281216</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05142839150425191</v>
+        <v>0.05080853499765054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1414613774223105</v>
+        <v>0.1389221862325359</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -3459,19 +3459,19 @@
         <v>39044</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28196</v>
+        <v>28065</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52553</v>
+        <v>51410</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09627465793718028</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06952572337531777</v>
+        <v>0.06920289666103417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.129584339804154</v>
+        <v>0.1267646942108865</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>32989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22476</v>
+        <v>22826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46170</v>
+        <v>46052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07982905026975554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05438776057204529</v>
+        <v>0.05523591557875347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1117254421030023</v>
+        <v>0.111439439226811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3584,19 +3584,19 @@
         <v>29561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21073</v>
+        <v>20545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42014</v>
+        <v>39958</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1083816808791527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07726101256534984</v>
+        <v>0.07532499514277401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1540392358382343</v>
+        <v>0.1464985694233573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -3605,19 +3605,19 @@
         <v>62550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48470</v>
+        <v>49014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79092</v>
+        <v>78313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09118152306962594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07065603418584471</v>
+        <v>0.07144946162410262</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1152956358268625</v>
+        <v>0.114159377180877</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>52765</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39798</v>
+        <v>40493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68631</v>
+        <v>67799</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1276846097752282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09630497070783271</v>
+        <v>0.09798788763555243</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1660786933077924</v>
+        <v>0.1640635714911141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -3655,19 +3655,19 @@
         <v>39415</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29124</v>
+        <v>28478</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51856</v>
+        <v>52227</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1445077562125215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1067788227768297</v>
+        <v>0.1044115863974235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1901218515681876</v>
+        <v>0.1914809038473563</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>86</v>
@@ -3676,19 +3676,19 @@
         <v>92180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74357</v>
+        <v>74594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>110652</v>
+        <v>111844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1343734614943673</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1083927963571871</v>
+        <v>0.1087381626505679</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1613008107819185</v>
+        <v>0.1630382950912297</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>145612</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124883</v>
+        <v>126067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>165220</v>
+        <v>166037</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3523624586876826</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3021992247772</v>
+        <v>0.3050661039782059</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3998108505855092</v>
+        <v>0.4017871071237484</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -3726,19 +3726,19 @@
         <v>105855</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91311</v>
+        <v>88934</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121947</v>
+        <v>121420</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3881022862092913</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3347782664677539</v>
+        <v>0.3260627481383723</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4470991328172756</v>
+        <v>0.4451671618056515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>237</v>
@@ -3747,19 +3747,19 @@
         <v>251468</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>226631</v>
+        <v>225791</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>277774</v>
+        <v>276722</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3665725476059902</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3303668355310015</v>
+        <v>0.3291429194683156</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4049198031259194</v>
+        <v>0.4033873140187707</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>120013</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102333</v>
+        <v>101258</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141746</v>
+        <v>137790</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2904145243574007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2476315082771433</v>
+        <v>0.2450309404836531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3430062688415574</v>
+        <v>0.3334342561063074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -3797,19 +3797,19 @@
         <v>51416</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39257</v>
+        <v>38437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65568</v>
+        <v>65541</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1885074093676387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1439304296169653</v>
+        <v>0.140924880903159</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2403961019310174</v>
+        <v>0.2402978090811484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -3818,19 +3818,19 @@
         <v>171428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>149019</v>
+        <v>149000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>196413</v>
+        <v>196828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2498964450651276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2172296207115736</v>
+        <v>0.2172021916106163</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2863171801456359</v>
+        <v>0.2869219039401786</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>61867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47768</v>
+        <v>47657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79410</v>
+        <v>80136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.149709356909933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1155919891864328</v>
+        <v>0.1153240723329401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1921619155810362</v>
+        <v>0.1939181336095022</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -3868,19 +3868,19 @@
         <v>46504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34685</v>
+        <v>34818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61310</v>
+        <v>61181</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1705008673313957</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1271661513840174</v>
+        <v>0.1276535664768685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.224782069171623</v>
+        <v>0.2243107800999652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>97</v>
@@ -3889,19 +3889,19 @@
         <v>108371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88867</v>
+        <v>91685</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130186</v>
+        <v>131053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1579760227648891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1295438620612405</v>
+        <v>0.1336524807620015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1897756141820733</v>
+        <v>0.1910404904504325</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>17598</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10453</v>
+        <v>10286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27487</v>
+        <v>28838</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04850992620864512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02881369669320899</v>
+        <v>0.02835282967886131</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07577053496313138</v>
+        <v>0.0794935712022003</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4014,19 +4014,19 @@
         <v>14291</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8132</v>
+        <v>8638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23260</v>
+        <v>24718</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05302206420863007</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03017216378395984</v>
+        <v>0.03204879528038761</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08630002137514295</v>
+        <v>0.09170898054565833</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -4035,19 +4035,19 @@
         <v>31889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22095</v>
+        <v>21863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44929</v>
+        <v>44240</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05043328829141513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03494441493654526</v>
+        <v>0.0345770779820164</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07105766695566526</v>
+        <v>0.06996756279593835</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>27459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17831</v>
+        <v>18916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38338</v>
+        <v>39441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0756923354701171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0491515328626803</v>
+        <v>0.0521427167713347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1056815336817207</v>
+        <v>0.1087208356349826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -4085,19 +4085,19 @@
         <v>22961</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15264</v>
+        <v>15575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33415</v>
+        <v>33230</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08519118350664802</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05663417406863472</v>
+        <v>0.05778809244152983</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1239767611958554</v>
+        <v>0.1232917393492694</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -4106,19 +4106,19 @@
         <v>50420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38409</v>
+        <v>37723</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64977</v>
+        <v>65042</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07974135261975189</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06074575705901383</v>
+        <v>0.05965977207072212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1027645688539831</v>
+        <v>0.1028660626182459</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>107878</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>91097</v>
+        <v>89995</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126970</v>
+        <v>127644</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2973716846077956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2511143005201623</v>
+        <v>0.2480771115941372</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3500020449955738</v>
+        <v>0.3518581779251129</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>100</v>
@@ -4156,19 +4156,19 @@
         <v>101472</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85511</v>
+        <v>84939</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117390</v>
+        <v>116956</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.376486277051311</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3172667532000658</v>
+        <v>0.3151435512961161</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4355447151411155</v>
+        <v>0.433936438253732</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>198</v>
@@ -4177,19 +4177,19 @@
         <v>209350</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>184663</v>
+        <v>184613</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>235708</v>
+        <v>233071</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3310953888252126</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2920524572855133</v>
+        <v>0.2919737761501354</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3727830392406317</v>
+        <v>0.3686113270547626</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>121506</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>102239</v>
+        <v>103315</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140313</v>
+        <v>141262</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3349386401789021</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2818278366841999</v>
+        <v>0.2847959456743226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3867816512053876</v>
+        <v>0.3893981378146747</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -4227,19 +4227,19 @@
         <v>68229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55219</v>
+        <v>54282</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84707</v>
+        <v>83882</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2531445867681558</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2048777728337516</v>
+        <v>0.2014002747488885</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3142826808809408</v>
+        <v>0.3112236170129958</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>176</v>
@@ -4248,19 +4248,19 @@
         <v>189734</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>168043</v>
+        <v>163142</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>214101</v>
+        <v>212383</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3000727781580999</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2657664550206882</v>
+        <v>0.2580168077351772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3386093913412512</v>
+        <v>0.3358925199659374</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>88330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70924</v>
+        <v>72970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106079</v>
+        <v>107753</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.24348741353454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1955081257499322</v>
+        <v>0.2011474531316091</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2924125578844611</v>
+        <v>0.2970278008642119</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -4298,19 +4298,19 @@
         <v>62572</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48698</v>
+        <v>49738</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76439</v>
+        <v>77840</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2321558884652551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1806797475506532</v>
+        <v>0.1845392902083926</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2836078780585561</v>
+        <v>0.288806562597857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -4319,19 +4319,19 @@
         <v>150902</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127948</v>
+        <v>130217</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>174865</v>
+        <v>176771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2386571921055206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2023545688395276</v>
+        <v>0.2059440345556742</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2765566379487326</v>
+        <v>0.2795714669535987</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>24179</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16172</v>
+        <v>15071</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35663</v>
+        <v>34170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06059826916458465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04053056814482275</v>
+        <v>0.03777161988476397</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08938117599935494</v>
+        <v>0.08563987283533947</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4444,19 +4444,19 @@
         <v>19292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11699</v>
+        <v>11519</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29167</v>
+        <v>28842</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05927328442512288</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03594353915523587</v>
+        <v>0.03539178790489084</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08961527320039112</v>
+        <v>0.08861481081491888</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -4465,19 +4465,19 @@
         <v>43471</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32741</v>
+        <v>29993</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58129</v>
+        <v>56826</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06000301271376151</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04519291126695898</v>
+        <v>0.04139915257683251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08023647652161137</v>
+        <v>0.07843785420492634</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>55839</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>43416</v>
+        <v>43429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>70212</v>
+        <v>69558</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1399480153095077</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1088130030299937</v>
+        <v>0.1088445687359333</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1759687306299547</v>
+        <v>0.1743301119940848</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -4515,19 +4515,19 @@
         <v>47485</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35966</v>
+        <v>35405</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>61851</v>
+        <v>62268</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1458952673764394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1105044249763691</v>
+        <v>0.1087799387395264</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1900329225397278</v>
+        <v>0.1913155542566047</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -4536,19 +4536,19 @@
         <v>103325</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>85258</v>
+        <v>84814</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>123102</v>
+        <v>124020</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1426198499745246</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1176825182679955</v>
+        <v>0.1170696484302264</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1699190360942461</v>
+        <v>0.1711866606706913</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>151676</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>131047</v>
+        <v>132482</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>171287</v>
+        <v>173637</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3801383805966677</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3284365404350357</v>
+        <v>0.3320346385299457</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4292904136820901</v>
+        <v>0.4351781405247476</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>120</v>
@@ -4586,19 +4586,19 @@
         <v>125074</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>108123</v>
+        <v>108753</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>142751</v>
+        <v>144487</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3842812364453944</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3322022233762536</v>
+        <v>0.3341361432339284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4385951915414636</v>
+        <v>0.4439274358730845</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>268</v>
@@ -4607,19 +4607,19 @@
         <v>276749</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>250448</v>
+        <v>254278</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>305599</v>
+        <v>308241</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3819995806507805</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.345695733274803</v>
+        <v>0.3509827999523421</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4218208429138545</v>
+        <v>0.4254678827461087</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>86554</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71414</v>
+        <v>72219</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102277</v>
+        <v>104678</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2169272205214562</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1789821377038249</v>
+        <v>0.1810003224724915</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2563331380867634</v>
+        <v>0.2623499069960161</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -4657,19 +4657,19 @@
         <v>71210</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56096</v>
+        <v>57108</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86212</v>
+        <v>86448</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2187875299147255</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1723524587815716</v>
+        <v>0.1754605375532057</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2648800352355455</v>
+        <v>0.2656051456557855</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>156</v>
@@ -4678,19 +4678,19 @@
         <v>157764</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136010</v>
+        <v>136638</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180760</v>
+        <v>180307</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.217762974424041</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1877357131203162</v>
+        <v>0.1886024561711676</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2495047915168806</v>
+        <v>0.2488790163256303</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>80753</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>64821</v>
+        <v>64280</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98724</v>
+        <v>98548</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2023881144077838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1624585657947455</v>
+        <v>0.1611034205513468</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2474280367283165</v>
+        <v>0.2469859717441115</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -4728,19 +4728,19 @@
         <v>62414</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48660</v>
+        <v>48504</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77831</v>
+        <v>76800</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1917626818383178</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1495059759262313</v>
+        <v>0.149026043259017</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2391327003123122</v>
+        <v>0.2359649857216468</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>134</v>
@@ -4749,19 +4749,19 @@
         <v>143167</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>122173</v>
+        <v>122563</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>166126</v>
+        <v>167199</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1976145822368924</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1686370588833618</v>
+        <v>0.1691744966404209</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2293048444723247</v>
+        <v>0.2307858847455481</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>96729</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>77570</v>
+        <v>80227</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>115322</v>
+        <v>116263</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06829499539200556</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05476770450599199</v>
+        <v>0.05664429161207275</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08142249465638834</v>
+        <v>0.08208729065745134</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>84</v>
@@ -4874,19 +4874,19 @@
         <v>84263</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>67598</v>
+        <v>68472</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101482</v>
+        <v>102500</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08165156853694935</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06550287003920224</v>
+        <v>0.06634984902463406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09833720478340102</v>
+        <v>0.09932382500429551</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>171</v>
@@ -4895,19 +4895,19 @@
         <v>180992</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>155130</v>
+        <v>153528</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>208556</v>
+        <v>208208</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07392487515702846</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06336199864981426</v>
+        <v>0.06270741285928937</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08518324652685341</v>
+        <v>0.08504142846468098</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>167407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>142413</v>
+        <v>144513</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>192282</v>
+        <v>193903</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1181972460484602</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1005503390165801</v>
+        <v>0.1020325672779539</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1357602011219063</v>
+        <v>0.1369042297876654</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>132</v>
@@ -4945,19 +4945,19 @@
         <v>135127</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>113424</v>
+        <v>116090</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>156969</v>
+        <v>158623</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1309392357262057</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1099085181100811</v>
+        <v>0.1124920503909564</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1521046662480203</v>
+        <v>0.1537076005725147</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>290</v>
@@ -4966,19 +4966,19 @@
         <v>302534</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>269779</v>
+        <v>270908</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>336344</v>
+        <v>335362</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1235680750084338</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1101894885754972</v>
+        <v>0.1106508417135358</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1373777825356522</v>
+        <v>0.1369764672588847</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>502873</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>465928</v>
+        <v>468855</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>537120</v>
+        <v>540989</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3550515545853672</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3289672371193638</v>
+        <v>0.3310334688535518</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3792316929997656</v>
+        <v>0.3819636291997194</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>385</v>
@@ -5016,19 +5016,19 @@
         <v>391011</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>359586</v>
+        <v>355081</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>424130</v>
+        <v>423710</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3788934002234277</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3484425949953928</v>
+        <v>0.3440769632424327</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4109860617682692</v>
+        <v>0.410579288488251</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>856</v>
@@ -5037,19 +5037,19 @@
         <v>893883</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>849470</v>
+        <v>846785</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>942768</v>
+        <v>939097</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3651010427933009</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3469604560093852</v>
+        <v>0.3458641362735675</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3850675144589097</v>
+        <v>0.3835681745807355</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>393427</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>359839</v>
+        <v>359948</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>425761</v>
+        <v>425197</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2777776071785972</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2540633763909099</v>
+        <v>0.2541402709769292</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3006068983653278</v>
+        <v>0.3002091611637761</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>230</v>
@@ -5087,19 +5087,19 @@
         <v>235999</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>207643</v>
+        <v>208557</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>263846</v>
+        <v>265347</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2286850464460331</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.201207912890878</v>
+        <v>0.2020935884626134</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2556690772006151</v>
+        <v>0.2571241280924418</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>601</v>
@@ -5108,19 +5108,19 @@
         <v>629425</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>586490</v>
+        <v>586879</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>677291</v>
+        <v>674958</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2570847834069512</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2395481238846786</v>
+        <v>0.2397068697642807</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2766354061435887</v>
+        <v>0.2756823061215344</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>255902</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>225428</v>
+        <v>228112</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>287605</v>
+        <v>288842</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1806785967955699</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1591625262224855</v>
+        <v>0.1610575965564047</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2030626933642761</v>
+        <v>0.2039359655800821</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>177</v>
@@ -5158,19 +5158,19 @@
         <v>185582</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>161611</v>
+        <v>160204</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>211973</v>
+        <v>213987</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1798307490673842</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1566027130623052</v>
+        <v>0.1552394763609165</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2054038566567783</v>
+        <v>0.2073556817772519</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>407</v>
@@ -5179,19 +5179,19 @@
         <v>441484</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>404723</v>
+        <v>401822</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>482610</v>
+        <v>478799</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1803212236342857</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1653063986220363</v>
+        <v>0.1641214643325679</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1971191984341979</v>
+        <v>0.1955622952325166</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>16163</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8250</v>
+        <v>8404</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26318</v>
+        <v>26777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1654195031885752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08442836871955967</v>
+        <v>0.08600796254199648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2693420989807357</v>
+        <v>0.2740423950797825</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5544,19 +5544,19 @@
         <v>10413</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5736</v>
+        <v>6272</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16948</v>
+        <v>17224</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.134620217519174</v>
+        <v>0.1346202175191741</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07415528496028652</v>
+        <v>0.0810784755830337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2190984701519834</v>
+        <v>0.222670151928152</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -5565,19 +5565,19 @@
         <v>26577</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17701</v>
+        <v>17595</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39040</v>
+        <v>39855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1518105389840095</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1011101036350375</v>
+        <v>0.1005034002989483</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2230036394486911</v>
+        <v>0.2276585933654199</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>9106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4286</v>
+        <v>4180</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16437</v>
+        <v>16729</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09319310797545467</v>
+        <v>0.09319310797545469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04386390818773769</v>
+        <v>0.04278045426537704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1682215792997939</v>
+        <v>0.1712085018874089</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -5615,19 +5615,19 @@
         <v>9435</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5216</v>
+        <v>5160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15558</v>
+        <v>15352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1219706086358388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06743527906024654</v>
+        <v>0.0667083919769831</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2011221926582729</v>
+        <v>0.198461045280954</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -5636,19 +5636,19 @@
         <v>18541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11893</v>
+        <v>12025</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28265</v>
+        <v>27016</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1059087267916766</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06793251293638015</v>
+        <v>0.06868779132450159</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1614532930987303</v>
+        <v>0.1543208183318685</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>34590</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24236</v>
+        <v>22982</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47478</v>
+        <v>46708</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3539983068863609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2480424523810717</v>
+        <v>0.2352068257011386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4859073401119682</v>
+        <v>0.4780202095856426</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -5686,19 +5686,19 @@
         <v>27336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20024</v>
+        <v>19894</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35042</v>
+        <v>35180</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.353385971928014</v>
+        <v>0.3533859719280141</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2588634889079607</v>
+        <v>0.2571832425932685</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4530099517213654</v>
+        <v>0.4547978541321168</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>72</v>
@@ -5707,19 +5707,19 @@
         <v>61925</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49130</v>
+        <v>48708</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77039</v>
+        <v>77583</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3537277407239247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2806395912410748</v>
+        <v>0.2782254937024143</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4400575701690916</v>
+        <v>0.4431675123195249</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>21594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12454</v>
+        <v>12401</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34316</v>
+        <v>33690</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2210033352190453</v>
+        <v>0.2210033352190454</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1274610332553689</v>
+        <v>0.1269194279987147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3511954148893618</v>
+        <v>0.3447900986934251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5757,19 +5757,19 @@
         <v>18309</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11580</v>
+        <v>11166</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27708</v>
+        <v>27838</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2366924035748932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1497042583952649</v>
+        <v>0.1443471041335385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3582015402371077</v>
+        <v>0.3598797329249124</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -5778,19 +5778,19 @@
         <v>39904</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28215</v>
+        <v>28540</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54665</v>
+        <v>54147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2279357028054092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1611680912398518</v>
+        <v>0.1630275827090895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3122533416336909</v>
+        <v>0.309297026208147</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>16258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6970</v>
+        <v>7891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30634</v>
+        <v>29496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1663857467305639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07133520640224458</v>
+        <v>0.08075622080587656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3135152928418129</v>
+        <v>0.3018695186024802</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -5828,19 +5828,19 @@
         <v>11861</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6167</v>
+        <v>6257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20198</v>
+        <v>19694</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.15333079834208</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07972813204269663</v>
+        <v>0.08088435133307924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2611138568771207</v>
+        <v>0.2545910422463347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -5849,19 +5849,19 @@
         <v>28118</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17024</v>
+        <v>16973</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45081</v>
+        <v>42916</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.16061729069498</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09724663973752337</v>
+        <v>0.09695204313059591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2575094300739452</v>
+        <v>0.2451456101671087</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>20391</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13108</v>
+        <v>12612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32192</v>
+        <v>32266</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1199642542255172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07711949379318954</v>
+        <v>0.07419633410047621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1893924477303352</v>
+        <v>0.1898260719231263</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -5974,19 +5974,19 @@
         <v>15919</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10209</v>
+        <v>9600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24889</v>
+        <v>24214</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1267966816461336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08131594050233264</v>
+        <v>0.07646140215637202</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1982401334226752</v>
+        <v>0.1928673987151056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -5995,19 +5995,19 @@
         <v>36310</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25225</v>
+        <v>26167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50106</v>
+        <v>50340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.122866904680316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0853580764415446</v>
+        <v>0.08854423751478877</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1695512445459852</v>
+        <v>0.1703403212954616</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>19793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11724</v>
+        <v>11197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31908</v>
+        <v>30710</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1164453742064891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06897695012306361</v>
+        <v>0.06587627516518714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1877200602028123</v>
+        <v>0.1806743433368738</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6045,19 +6045,19 @@
         <v>11643</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6793</v>
+        <v>6756</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18157</v>
+        <v>19230</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09273299310833655</v>
+        <v>0.09273299310833653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05410541642304306</v>
+        <v>0.05381514215046623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1446186552070318</v>
+        <v>0.1531694465356991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -6066,19 +6066,19 @@
         <v>31435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21258</v>
+        <v>21977</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44307</v>
+        <v>43390</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1063715381389112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07193324901229468</v>
+        <v>0.07436675175757591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1499253381798299</v>
+        <v>0.1468240746564994</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>67703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52963</v>
+        <v>55282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82510</v>
+        <v>83489</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3983103776010813</v>
+        <v>0.3983103776010811</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3115947637876325</v>
+        <v>0.3252354220999366</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4854241103142267</v>
+        <v>0.4911823953870171</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -6116,19 +6116,19 @@
         <v>39810</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31068</v>
+        <v>31894</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50314</v>
+        <v>49761</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3170877570489425</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2474605538113291</v>
+        <v>0.2540384189179504</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4007515083272258</v>
+        <v>0.3963477582440447</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -6137,19 +6137,19 @@
         <v>107513</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>91389</v>
+        <v>92026</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>125257</v>
+        <v>125427</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.363804211348335</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3092445403840907</v>
+        <v>0.3114003838933178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4238478467992355</v>
+        <v>0.4244231754168818</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>40592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28268</v>
+        <v>29027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56013</v>
+        <v>54195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2388110994627859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1663067579358061</v>
+        <v>0.1707721318367414</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3295389980989171</v>
+        <v>0.318839360910032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -6187,19 +6187,19 @@
         <v>31733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23818</v>
+        <v>23866</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40700</v>
+        <v>40119</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.252754105544321</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1897096998190406</v>
+        <v>0.1900965739292755</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3241769265163371</v>
+        <v>0.3195480233569801</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -6208,19 +6208,19 @@
         <v>72325</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59324</v>
+        <v>57767</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89155</v>
+        <v>89290</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2447345685978856</v>
+        <v>0.2447345685978855</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2007410635468637</v>
+        <v>0.1954718292235441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3016833298004011</v>
+        <v>0.3021416994853533</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>21497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13095</v>
+        <v>13458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34467</v>
+        <v>35133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1264688945041266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07704249839442391</v>
+        <v>0.07917642172883457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2027744281414001</v>
+        <v>0.2066932000213218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -6258,19 +6258,19 @@
         <v>26444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19032</v>
+        <v>18409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35578</v>
+        <v>34773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2106284626522664</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1515939197914395</v>
+        <v>0.1466247274506044</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.283378733064352</v>
+        <v>0.2769687245587082</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -6279,19 +6279,19 @@
         <v>47941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35201</v>
+        <v>36227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64820</v>
+        <v>64400</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1622227772345524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1191140399799998</v>
+        <v>0.1225841951506173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2193400722163147</v>
+        <v>0.2179163839488396</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>12948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6999</v>
+        <v>6680</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22732</v>
+        <v>22903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1403756604204535</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07588141715187179</v>
+        <v>0.07241906491060812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2464512728072555</v>
+        <v>0.2483051297674079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -6404,19 +6404,19 @@
         <v>11582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6613</v>
+        <v>6680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18840</v>
+        <v>19132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1273780658628485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07273473311670582</v>
+        <v>0.07346274105634887</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2072012767758639</v>
+        <v>0.210415473394113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -6425,19 +6425,19 @@
         <v>24530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16854</v>
+        <v>15303</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35605</v>
+        <v>35611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.133923395870702</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09201431853338488</v>
+        <v>0.08354647932306103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1943933197688784</v>
+        <v>0.1944212624408023</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>14118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7226</v>
+        <v>6782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24792</v>
+        <v>24475</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1530674700918243</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07833653128661243</v>
+        <v>0.07352959026675768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2687820681735735</v>
+        <v>0.2653524167120598</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -6475,19 +6475,19 @@
         <v>10072</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5025</v>
+        <v>5502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17210</v>
+        <v>17668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1107680986237192</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05526502383243749</v>
+        <v>0.06051030599863368</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1892781174153282</v>
+        <v>0.1943176786060077</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -6496,19 +6496,19 @@
         <v>24190</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16057</v>
+        <v>15200</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37208</v>
+        <v>37202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1320692204702639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08766300417514725</v>
+        <v>0.08298564905498337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2031449288840308</v>
+        <v>0.2031096848853409</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>30408</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21058</v>
+        <v>20012</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42926</v>
+        <v>41157</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3296769751800778</v>
+        <v>0.3296769751800779</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2282990508777176</v>
+        <v>0.216963478071559</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4653838147074569</v>
+        <v>0.4462134319681804</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -6546,19 +6546,19 @@
         <v>27436</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20064</v>
+        <v>19313</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35873</v>
+        <v>35763</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3017386477679553</v>
+        <v>0.3017386477679554</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2206621130135789</v>
+        <v>0.212410085288678</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3945342565914657</v>
+        <v>0.3933295874294341</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>60</v>
@@ -6567,19 +6567,19 @@
         <v>57844</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45569</v>
+        <v>44987</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>71256</v>
+        <v>71702</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3158078335676313</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2487889095878914</v>
+        <v>0.2456132110886499</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3890338518756958</v>
+        <v>0.3914691827675468</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>23691</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15094</v>
+        <v>15240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34899</v>
+        <v>34132</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2568474267675805</v>
+        <v>0.2568474267675806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1636461075282023</v>
+        <v>0.1652223794654996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3783616583257117</v>
+        <v>0.3700465715149531</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -6617,19 +6617,19 @@
         <v>29318</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22503</v>
+        <v>22063</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38291</v>
+        <v>38038</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3224415822198965</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2474923792019327</v>
+        <v>0.2426460748586952</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.421131165034703</v>
+        <v>0.4183419225813013</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -6638,19 +6638,19 @@
         <v>53009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41460</v>
+        <v>40928</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68020</v>
+        <v>66373</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2894096706520255</v>
+        <v>0.2894096706520256</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2263553321209018</v>
+        <v>0.2234533325427168</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3713655371459318</v>
+        <v>0.3623730218326281</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>11071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3612</v>
+        <v>3860</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27513</v>
+        <v>25536</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1200324675400637</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03916299317730335</v>
+        <v>0.04185088928289035</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2982855585819796</v>
+        <v>0.2768491723584557</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -6688,19 +6688,19 @@
         <v>12518</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7607</v>
+        <v>7374</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19063</v>
+        <v>18865</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1376736055255804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0836595786843662</v>
+        <v>0.08110097650617887</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.209651841663952</v>
+        <v>0.2074823542915561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -6709,19 +6709,19 @@
         <v>23589</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14779</v>
+        <v>13711</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39016</v>
+        <v>37528</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1287898794393774</v>
+        <v>0.1287898794393773</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0806863394539179</v>
+        <v>0.07485678346653199</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.213013156017973</v>
+        <v>0.2048892623130288</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>31330</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22592</v>
+        <v>21895</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44073</v>
+        <v>42726</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2711714012700071</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1955467914125386</v>
+        <v>0.1895110491776025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3814731664203137</v>
+        <v>0.369814297953286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6834,19 +6834,19 @@
         <v>19037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12365</v>
+        <v>13100</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26622</v>
+        <v>27284</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1998215285113797</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.129790841910329</v>
+        <v>0.137506751729558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2794325979734203</v>
+        <v>0.2863786156824527</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -6855,19 +6855,19 @@
         <v>50367</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38446</v>
+        <v>39576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63531</v>
+        <v>64343</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2389255476622588</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1823776459393583</v>
+        <v>0.1877374875364676</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3013756449407599</v>
+        <v>0.3052266298490495</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>6980</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3020</v>
+        <v>2848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13897</v>
+        <v>13013</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06041228523246957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02614051974772416</v>
+        <v>0.02464701084041651</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1202879349302403</v>
+        <v>0.1126328953354208</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -6905,19 +6905,19 @@
         <v>14632</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9020</v>
+        <v>9003</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22229</v>
+        <v>21609</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1535803186765609</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09467928786184156</v>
+        <v>0.09449546144401703</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2333244593366287</v>
+        <v>0.2268183988306531</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -6926,19 +6926,19 @@
         <v>21611</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14329</v>
+        <v>14097</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31367</v>
+        <v>30864</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1025186359686969</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06797420290954598</v>
+        <v>0.06687173013624276</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1487981965388502</v>
+        <v>0.1464087021067372</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>32281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23418</v>
+        <v>22590</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42899</v>
+        <v>42796</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2794040757533119</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2026912203572644</v>
+        <v>0.1955296123807877</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3713074362031504</v>
+        <v>0.3704183925548367</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -6976,19 +6976,19 @@
         <v>28594</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21733</v>
+        <v>21915</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37245</v>
+        <v>37106</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3001346418276705</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2281135694145233</v>
+        <v>0.2300258877478292</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3909327529788198</v>
+        <v>0.389478107042415</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -6997,19 +6997,19 @@
         <v>60875</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48836</v>
+        <v>50095</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>74357</v>
+        <v>75215</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2887730454934673</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.231663828790716</v>
+        <v>0.2376375678953096</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3527276010857721</v>
+        <v>0.3567987036446518</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>30120</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21143</v>
+        <v>20025</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41084</v>
+        <v>41841</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2607054152521647</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1830031124779037</v>
+        <v>0.1733224464274509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3556036002546853</v>
+        <v>0.3621503588802705</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -7047,19 +7047,19 @@
         <v>17301</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11430</v>
+        <v>11478</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25894</v>
+        <v>25339</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1815981549640198</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1199701405332651</v>
+        <v>0.1204765559183935</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2717905007218965</v>
+        <v>0.2659662288716658</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -7068,19 +7068,19 @@
         <v>47421</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36562</v>
+        <v>35912</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60666</v>
+        <v>60060</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2249536887818031</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1734379191565494</v>
+        <v>0.1703573114021278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2877811566467648</v>
+        <v>0.2849071555080563</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>14824</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7425</v>
+        <v>8333</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24232</v>
+        <v>23988</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1283068224920467</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06426993630607127</v>
+        <v>0.07212772125849366</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2097429588923009</v>
+        <v>0.2076306625530673</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -7118,19 +7118,19 @@
         <v>15707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9997</v>
+        <v>9714</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23883</v>
+        <v>23729</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1648653560203693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1049294553924316</v>
+        <v>0.1019659269745608</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2506808882646805</v>
+        <v>0.2490726332361715</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -7139,19 +7139,19 @@
         <v>30531</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21728</v>
+        <v>21262</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41385</v>
+        <v>41772</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1448290820937739</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1030731930449406</v>
+        <v>0.1008633026147814</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1963180098172124</v>
+        <v>0.1981564904730397</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>80832</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64582</v>
+        <v>63445</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101662</v>
+        <v>99746</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1700081553252637</v>
+        <v>0.1700081553252636</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1358314143261152</v>
+        <v>0.1334394653503815</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.213819584699012</v>
+        <v>0.209789239977537</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>71</v>
@@ -7264,19 +7264,19 @@
         <v>56952</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45052</v>
+        <v>45994</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70663</v>
+        <v>71909</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1463680642702191</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1157859279123614</v>
+        <v>0.1182059256213533</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1816077647218861</v>
+        <v>0.1848098333718247</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>137</v>
@@ -7285,19 +7285,19 @@
         <v>137783</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>116527</v>
+        <v>118159</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>160161</v>
+        <v>161569</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1593687682876466</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1347828529969815</v>
+        <v>0.1366706485588706</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.185252490782928</v>
+        <v>0.1868813798898811</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>49997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36865</v>
+        <v>37134</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>67425</v>
+        <v>67262</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1051555808726941</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07753597493446296</v>
+        <v>0.07810252579135465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1418106352388949</v>
+        <v>0.1414681815155457</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -7335,19 +7335,19 @@
         <v>45781</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35035</v>
+        <v>34590</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58689</v>
+        <v>58276</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1176585015765073</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09004214782451227</v>
+        <v>0.08889675339177379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1508333021995967</v>
+        <v>0.1497717231305762</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>100</v>
@@ -7356,19 +7356,19 @@
         <v>95778</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>77872</v>
+        <v>78184</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>116052</v>
+        <v>118050</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1107826071036323</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0900711090525842</v>
+        <v>0.090432708890408</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1342332577516306</v>
+        <v>0.1365444818655983</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>164981</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>142936</v>
+        <v>141429</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>191348</v>
+        <v>191253</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3469954731174025</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3006288746706638</v>
+        <v>0.2974589722133087</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4024505496877508</v>
+        <v>0.4022512543103942</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>173</v>
@@ -7406,19 +7406,19 @@
         <v>123176</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>106019</v>
+        <v>108958</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>139340</v>
+        <v>140763</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3165661597750964</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2724727648629752</v>
+        <v>0.2800251592293738</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.358110547321727</v>
+        <v>0.3617668218115551</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>318</v>
@@ -7427,19 +7427,19 @@
         <v>288157</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>260403</v>
+        <v>258380</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>319615</v>
+        <v>316334</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3333005494733317</v>
+        <v>0.3333005494733315</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3011990782435732</v>
+        <v>0.2988590410881544</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3696870165334042</v>
+        <v>0.3658920511620766</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>115998</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>96780</v>
+        <v>95762</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>139715</v>
+        <v>138704</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2439706479635177</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2035520036814712</v>
+        <v>0.2014109314155711</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2938548166491087</v>
+        <v>0.2917283822975208</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>120</v>
@@ -7477,19 +7477,19 @@
         <v>96661</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>82226</v>
+        <v>79083</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>114103</v>
+        <v>112915</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2484231083879412</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2113228477960576</v>
+        <v>0.2032470793610291</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2932497836198512</v>
+        <v>0.290195341205605</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>214</v>
@@ -7498,19 +7498,19 @@
         <v>212659</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>186485</v>
+        <v>186483</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>240889</v>
+        <v>241019</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2459745086768632</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.215700554695005</v>
+        <v>0.2156982825224805</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2786275072322098</v>
+        <v>0.2787779946403459</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>63649</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45853</v>
+        <v>45767</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>85171</v>
+        <v>85955</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.133870142721122</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09643928729802864</v>
+        <v>0.09625982498407144</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1791351537644857</v>
+        <v>0.1807844452981193</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>77</v>
@@ -7548,19 +7548,19 @@
         <v>66530</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>54416</v>
+        <v>53388</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>83021</v>
+        <v>82086</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1709841659902363</v>
+        <v>0.1709841659902362</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1398514668287513</v>
+        <v>0.1372094482240199</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2133675272475268</v>
+        <v>0.2109647679227135</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>119</v>
@@ -7569,19 +7569,19 @@
         <v>130179</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>108277</v>
+        <v>109374</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>157714</v>
+        <v>155177</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1505735664585264</v>
+        <v>0.1505735664585263</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.12523988927587</v>
+        <v>0.1265091847216837</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1824220463655759</v>
+        <v>0.1794879301000846</v>
       </c>
     </row>
     <row r="33">
